--- a/Out/OPCIONES PARA IIN2 - 1.xlsx
+++ b/Out/OPCIONES PARA IIN2 - 1.xlsx
@@ -476,17 +476,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -496,17 +488,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -516,17 +500,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -539,7 +515,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -548,10 +528,22 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -560,10 +552,22 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -572,10 +576,22 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -584,10 +600,22 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -595,27 +623,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -623,24 +647,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
+          <t>ÁLGEBRA [AL3]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -651,24 +667,16 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
+          <t>ÁLGEBRA [AL3]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -679,24 +687,16 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
+          <t>ÁLGEBRA [AL3]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -707,18 +707,18 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -727,18 +727,18 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -747,18 +747,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -767,18 +767,18 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -787,17 +787,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -807,17 +799,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -827,17 +811,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -847,17 +823,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -915,17 +883,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -935,17 +895,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -955,17 +907,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -975,17 +919,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -1077,16 +1013,24 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -1097,16 +1041,24 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1117,16 +1069,24 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1137,10 +1097,26 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -1150,9 +1126,17 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1162,9 +1146,17 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1174,9 +1166,17 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1186,9 +1186,17 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1197,17 +1205,9 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -1217,17 +1217,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
@@ -1237,17 +1229,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -1257,17 +1241,9 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -1278,17 +1254,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1298,17 +1266,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1318,17 +1278,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1338,17 +1290,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1357,17 +1301,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -1377,17 +1313,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -1399,13 +1327,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1419,13 +1347,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1437,9 +1365,17 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -1485,26 +1421,10 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1513,26 +1433,10 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1541,26 +1445,10 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1569,26 +1457,10 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1679,18 +1551,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1699,18 +1571,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1719,18 +1591,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1739,11 +1611,23 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1754,16 +1638,20 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1774,16 +1662,20 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1794,16 +1686,20 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1814,16 +1710,20 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1831,27 +1731,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1859,24 +1755,16 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
+          <t>ÁLGEBRA [AL3]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1887,24 +1775,16 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
+          <t>ÁLGEBRA [AL3]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1915,24 +1795,16 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
+          <t>ÁLGEBRA [AL3]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1991,17 +1863,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -2011,17 +1875,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -2031,17 +1887,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -2051,17 +1899,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -2119,17 +1959,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -2139,17 +1971,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -2159,17 +1983,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -2179,17 +1995,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -2282,17 +2090,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2302,17 +2102,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2322,17 +2114,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2356,13 +2140,13 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -2376,13 +2160,13 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2396,13 +2180,13 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -2416,13 +2200,13 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2433,18 +2217,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -2453,18 +2237,18 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2473,18 +2257,18 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2493,18 +2277,18 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2513,18 +2297,18 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2533,18 +2317,18 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2553,18 +2337,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2573,18 +2357,18 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2593,17 +2377,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -2613,17 +2389,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -2635,13 +2403,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -2655,13 +2423,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2673,9 +2441,17 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -2721,17 +2497,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -2741,17 +2509,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -2761,17 +2521,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -2781,17 +2533,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -2883,18 +2627,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2903,18 +2647,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2923,18 +2667,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2943,9 +2687,17 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -2956,9 +2708,17 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2968,9 +2728,17 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2980,9 +2748,17 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2992,9 +2768,17 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3003,18 +2787,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -3023,18 +2807,18 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3043,18 +2827,18 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3063,18 +2847,18 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3084,17 +2868,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3104,17 +2880,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3124,17 +2892,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3144,17 +2904,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3163,17 +2915,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -3183,17 +2927,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -3205,13 +2941,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -3225,13 +2961,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3243,9 +2979,17 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3291,26 +3035,10 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -3319,26 +3047,10 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -3347,26 +3059,10 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -3375,26 +3071,10 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -3486,17 +3166,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -3506,17 +3178,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -3526,17 +3190,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3549,7 +3205,11 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3560,16 +3220,20 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3580,16 +3244,20 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3600,16 +3268,20 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3620,16 +3292,20 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3637,19 +3313,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3657,18 +3337,18 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3677,18 +3357,18 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3697,18 +3377,18 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3765,17 +3445,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -3785,17 +3457,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -3805,17 +3469,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -3825,17 +3481,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -3895,24 +3543,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -3923,24 +3563,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -3951,24 +3583,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -3979,24 +3603,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD4]</t>
-        </is>
-      </c>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -4088,17 +3704,9 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4108,17 +3716,9 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4128,17 +3728,9 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -4162,13 +3754,13 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -4182,13 +3774,13 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -4202,13 +3794,13 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -4222,13 +3814,13 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD6]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -4239,18 +3831,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -4259,18 +3851,18 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -4279,18 +3871,18 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -4299,18 +3891,18 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL3]</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -4320,17 +3912,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4340,17 +3924,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4360,17 +3936,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4380,17 +3948,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -4399,17 +3959,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -4419,17 +3971,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -4441,13 +3985,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4461,13 +4005,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP1]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4479,9 +4023,17 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -4529,13 +4081,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -4549,13 +4101,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -4569,13 +4121,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -4589,13 +4141,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS4]</t>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS8]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -4692,13 +4244,13 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -4712,13 +4264,13 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -4732,13 +4284,13 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -4750,10 +4302,22 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4762,10 +4326,22 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4774,10 +4350,22 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4786,10 +4374,22 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -4798,10 +4398,22 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -4809,27 +4421,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -4837,26 +4437,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -4865,26 +4449,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -4893,26 +4461,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -4921,18 +4473,18 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -4941,18 +4493,18 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -4961,18 +4513,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -4981,18 +4533,18 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5001,17 +4553,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -5021,17 +4565,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -5041,17 +4577,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -5061,17 +4589,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -5129,17 +4649,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -5149,17 +4661,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -5169,17 +4673,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -5189,17 +4685,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -5291,16 +4779,24 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -5311,16 +4807,24 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -5331,16 +4835,24 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -5351,11 +4863,31 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS1]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5366,16 +4898,20 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5386,16 +4922,20 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5406,16 +4946,20 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5426,16 +4970,20 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA1]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5443,27 +4991,15 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED3]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5471,26 +5007,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -5499,26 +5019,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -5527,26 +5031,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>CÁLCULO DIFERENCIAL [CD3]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -5603,17 +5091,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -5623,17 +5103,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -5643,17 +5115,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
@@ -5663,17 +5127,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
@@ -5731,17 +5187,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -5751,17 +5199,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -5771,17 +5211,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -5791,17 +5223,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -5896,13 +5320,13 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -5916,13 +5340,13 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -5936,13 +5360,13 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REDACCIÓN [RED2]</t>
+          <t>ÁLGEBRA [AL2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -5954,9 +5378,17 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA [AL2]</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -5968,13 +5400,13 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -5988,13 +5420,13 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -6008,13 +5440,13 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -6028,13 +5460,13 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CÁLCULO DIFERENCIAL [CD2]</t>
+          <t>CÁLCULO DIFERENCIAL [CDF5]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -6045,17 +5477,9 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -6065,17 +5489,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
@@ -6085,17 +5501,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -6105,17 +5513,9 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA [ALG1]</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -6125,18 +5525,18 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -6145,18 +5545,18 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -6165,18 +5565,18 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -6185,18 +5585,18 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ANÁLISIS Y DISEÑO DE ALGORITMOS [ADA3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS3]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -6205,17 +5605,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -6225,17 +5617,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -6247,13 +5631,13 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -6267,13 +5651,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>INTRODUCCIÓN A LA FÍSICA /FÍSICA /FUND CIENT PARA INGENIERÍA [FIS2]</t>
+          <t>REDACCIÓN [RED6]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -6285,9 +5669,17 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>REDACCIÓN [RED6]</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -6333,17 +5725,9 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
     </row>
@@ -6353,17 +5737,9 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
     </row>
@@ -6373,17 +5749,9 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
     </row>
@@ -6393,17 +5761,9 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DISEÑO ASISTIDO POR COMPUTADOR [DAP3]</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
     </row>
